--- a/pokemonitems.xlsx
+++ b/pokemonitems.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,203 +443,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>elixir</t>
+          <t>claw-fossil</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>max-elixir</t>
+          <t>quick-claw</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>iron</t>
+          <t>grip-claw</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dire-hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>fire-stone</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>air-mail</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>babiri-berry</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>miracle-seed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>iron-ball</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>iron-plate</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>electirizer</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>squirt-bottle</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>sapphire</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>inquiry-mail</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>air-balloon</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>fire-gem</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>dire-hit-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>dire-hit-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>gardevoirite</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>pinsirite</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>strange-souvenir</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>fairy-gem</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>pair-of-tickets</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>firium-z--held</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>fairium-z--held</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>fire-memory</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>fairy-memory</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>firium-z--bag</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>fairium-z--bag</t>
+          <t>razor-claw</t>
         </is>
       </c>
     </row>
